--- a/SFM_F.xlsx
+++ b/SFM_F.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Ferroviario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9745AB6A-7058-4C29-823A-2DB0EFAF90AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855814B4-9F35-4CD4-B070-30B8E06B627E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_11.1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
-  <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Kansas City Southern de México, S. A. de C. V.</t>
   </si>
@@ -84,9 +78,6 @@
 de Tehuantepec</t>
   </si>
   <si>
-    <t>Via Corta Oaxaca c</t>
-  </si>
-  <si>
     <t>Ferrocarril y Terminal del Valle de México, S. A. de C. V.</t>
   </si>
   <si>
@@ -115,9 +106,6 @@
     <t>Sin uso</t>
   </si>
   <si>
-    <t>Lineas remanentes</t>
-  </si>
-  <si>
     <t>Vías secundarias</t>
   </si>
   <si>
@@ -137,6 +125,15 @@
   </si>
   <si>
     <t>Empresa</t>
+  </si>
+  <si>
+    <t>Actualización: mayo 2024.</t>
+  </si>
+  <si>
+    <t>Vía Corta Oaxaca c</t>
+  </si>
+  <si>
+    <t>Líneas remanentes</t>
   </si>
 </sst>
 </file>
@@ -285,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -328,6 +325,9 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -586,7 +586,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
@@ -594,21 +594,21 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="13">
         <v>4313.4269999999997</v>
@@ -616,10 +616,10 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="14">
         <v>6867.050400000001</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="D7" s="13">
         <v>943.21699999999998</v>
@@ -638,10 +638,10 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="14">
         <v>320.31099999999998</v>
@@ -649,10 +649,10 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="13">
         <v>1486.0010000000002</v>
@@ -660,10 +660,10 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="D10" s="14">
         <v>216.505</v>
@@ -671,10 +671,10 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="13">
         <v>973.86799999999994</v>
@@ -682,10 +682,10 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="14">
         <v>1106.413</v>
@@ -693,10 +693,10 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D13" s="13">
         <v>217</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D14" s="14">
         <v>304</v>
@@ -715,10 +715,10 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15" s="13">
         <v>71.412800000000004</v>
@@ -726,10 +726,10 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D16" s="14">
         <v>7.8228299999999997</v>
@@ -737,10 +737,10 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D17" s="13">
         <v>40.1</v>
@@ -748,10 +748,10 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D18" s="14">
         <v>1156.825</v>
@@ -759,10 +759,10 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D19" s="13">
         <v>4012.6259706747101</v>
@@ -770,10 +770,10 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D20" s="14">
         <v>2759</v>
@@ -781,28 +781,26 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D21" s="16">
         <v>2936.8</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>31</v>
+      <c r="B22" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="4" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D23" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="4"/>
     </row>
     <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D27" s="12"/>

--- a/SFM_F.xlsx
+++ b/SFM_F.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855814B4-9F35-4CD4-B070-30B8E06B627E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC932B3-AF96-4D04-B62F-49A8760BF5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_11.1" sheetId="1" r:id="rId1"/>
+    <sheet name="C_21" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Kansas City Southern de México, S. A. de C. V.</t>
   </si>
@@ -134,6 +134,16 @@
   </si>
   <si>
     <t>Líneas remanentes</t>
+  </si>
+  <si>
+    <t>Nota: Se considera solo troncales y ramales y excluye secundarias que están concesionadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Para los conceptos de "Kilometros de vía por empresa concesionaria, Ferrocarril Mexicano, Kansas City Southern de México, Ferrocarril del Istmo de Tehuantepec, Ferrocarril y Terminal del Valle de México", 
+Conforme a la normatividad algunos tramos de las vías concesionadas fueron dados de baja, reintegrándolos a la red de jurisdicción federal, ya que por su baja demanda no son costeables.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Para los conceptos de "Kilometros de vía por empresa concesionaria, Ferrocarril del Istmo de Tehuantepec. A partir de 2018 entró en vigor la modificación al título de asignación de la empresa Ferrocarril del Istmo de Tehuantepec (FIT), con lo que ahora se incluye en su red la operación de la Línea Chiapas Mayab. </t>
   </si>
 </sst>
 </file>
@@ -282,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -328,6 +338,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -570,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:E28"/>
+  <dimension ref="B2:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -797,18 +814,36 @@
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
+      <c r="B23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="12"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D28" s="12"/>
-      <c r="E28" s="1"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="12"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="12"/>
+      <c r="E31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/SFM_F.xlsx
+++ b/SFM_F.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC932B3-AF96-4D04-B62F-49A8760BF5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E4A13A-3211-4412-96D1-F95E62DEA4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Kansas City Southern de México, S. A. de C. V.</t>
   </si>
@@ -139,11 +139,14 @@
     <t>Nota: Se considera solo troncales y ramales y excluye secundarias que están concesionadas.</t>
   </si>
   <si>
-    <t xml:space="preserve">  Para los conceptos de "Kilometros de vía por empresa concesionaria, Ferrocarril Mexicano, Kansas City Southern de México, Ferrocarril del Istmo de Tehuantepec, Ferrocarril y Terminal del Valle de México", 
+    <t xml:space="preserve">  Para los conceptos de "Kilómetros de vía por empresa concesionaria, Ferrocarril Mexicano, Kansas City Southern de México, Ferrocarril del Istmo de Tehuantepec, Ferrocarril y Terminal del Valle de México", 
 Conforme a la normatividad algunos tramos de las vías concesionadas fueron dados de baja, reintegrándolos a la red de jurisdicción federal, ya que por su baja demanda no son costeables.</t>
   </si>
   <si>
-    <t xml:space="preserve">  Para los conceptos de "Kilometros de vía por empresa concesionaria, Ferrocarril del Istmo de Tehuantepec. A partir de 2018 entró en vigor la modificación al título de asignación de la empresa Ferrocarril del Istmo de Tehuantepec (FIT), con lo que ahora se incluye en su red la operación de la Línea Chiapas Mayab. </t>
+    <t xml:space="preserve">  Para los conceptos de "Kilómetros de vía por empresa concesionaria, Ferrocarril del Istmo de Tehuantepec. A partir de 2018 entró en vigor la modificación al título de asignación de la empresa Ferrocarril del Istmo de Tehuantepec (FIT), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  con lo que ahora se incluye en su red la operación de la Línea Chiapas Mayab. </t>
   </si>
 </sst>
 </file>
@@ -292,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -339,12 +342,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -587,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:E31"/>
+  <dimension ref="B2:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -814,7 +816,7 @@
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="18" t="s">
+      <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="10"/>
@@ -826,24 +828,30 @@
       <c r="C24" s="10"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
+      <c r="B26" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="12"/>
-      <c r="E30" s="1"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D31" s="12"/>
       <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="12"/>
+      <c r="E32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/SFM_F.xlsx
+++ b/SFM_F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E4A13A-3211-4412-96D1-F95E62DEA4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4F2B65-7C9D-493C-ABB5-231C74E633B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -127,9 +127,6 @@
     <t>Empresa</t>
   </si>
   <si>
-    <t>Actualización: mayo 2024.</t>
-  </si>
-  <si>
     <t>Vía Corta Oaxaca c</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t xml:space="preserve">  con lo que ahora se incluye en su red la operación de la Línea Chiapas Mayab. </t>
+  </si>
+  <si>
+    <t>Actualización: Mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -346,7 +346,7 @@
       <alignment horizontal="left" vertical="top" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
+      <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -715,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="13">
         <v>217</v>
@@ -781,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="13">
         <v>4012.6259706747101</v>
@@ -811,31 +811,31 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="10"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="10"/>
     </row>

--- a/SFM_F.xlsx
+++ b/SFM_F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4F2B65-7C9D-493C-ABB5-231C74E633B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1597B6F5-0030-454E-8CA8-DC309102F419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -165,19 +165,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Montserrat"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Montserrat"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Montserrat Medium"/>
       <family val="2"/>
@@ -191,11 +178,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -293,60 +295,61 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -595,266 +598,267 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:4" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="8">
         <v>4313.4269999999997</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>6867.050400000001</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="8">
         <v>943.21699999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="11">
         <v>320.31099999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="8">
         <v>1486.0010000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="11">
         <v>216.505</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="8">
         <v>973.86799999999994</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <v>1106.413</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="8">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="11">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="8">
         <v>71.412800000000004</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="11">
         <v>7.8228299999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="8">
         <v>40.1</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="11">
         <v>1156.825</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="8">
         <v>4012.6259706747101</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="11">
         <v>2759</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="14">
         <v>2936.8</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B22" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="10"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="19" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="10"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="18" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B25" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="18" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B26" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="12"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="12"/>
-      <c r="E32" s="1"/>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SFM_F.xlsx
+++ b/SFM_F.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1597B6F5-0030-454E-8CA8-DC309102F419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772DCE14-503C-4C5D-9A89-DDC6D9C4D53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_21" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Kansas City Southern de México, S. A. de C. V.</t>
   </si>
@@ -118,19 +118,10 @@
     <t>Vía concesionada</t>
   </si>
   <si>
-    <t>Sistema Ferroviario Mexicano 2023</t>
-  </si>
-  <si>
     <t>Fuente: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
   <si>
     <t>Empresa</t>
-  </si>
-  <si>
-    <t>Vía Corta Oaxaca c</t>
-  </si>
-  <si>
-    <t>Líneas remanentes</t>
   </si>
   <si>
     <t>Nota: Se considera solo troncales y ramales y excluye secundarias que están concesionadas.</t>
@@ -146,7 +137,22 @@
     <t xml:space="preserve">  con lo que ahora se incluye en su red la operación de la Línea Chiapas Mayab. </t>
   </si>
   <si>
-    <t>Actualización: Mayo 2024.</t>
+    <t>Via Corta Oaxaca c</t>
+  </si>
+  <si>
+    <t>Ferrocarril Suburbano S.A.P.I de C.V.</t>
+  </si>
+  <si>
+    <t>Tren Suburbano</t>
+  </si>
+  <si>
+    <t>Lineas remanentes</t>
+  </si>
+  <si>
+    <t>Actualización: Julio 2025.</t>
+  </si>
+  <si>
+    <t>Sistema Ferroviario Mexicano 2024</t>
   </si>
 </sst>
 </file>
@@ -326,13 +332,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -350,6 +349,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -592,13 +598,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:E32"/>
+  <dimension ref="B2:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
     <col min="2" max="2" width="40" style="2" customWidth="1"/>
@@ -607,17 +613,17 @@
     <col min="5" max="16384" width="11.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>25</v>
@@ -626,7 +632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -637,7 +643,7 @@
         <v>4313.4269999999997</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
@@ -648,7 +654,7 @@
         <v>6867.050400000001</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -659,7 +665,7 @@
         <v>943.21699999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
@@ -670,7 +676,7 @@
         <v>320.31099999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -681,7 +687,7 @@
         <v>1486.0010000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
@@ -692,7 +698,7 @@
         <v>216.505</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
@@ -703,7 +709,7 @@
         <v>973.86799999999994</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -714,18 +720,18 @@
         <v>1106.413</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
@@ -736,7 +742,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
@@ -747,7 +753,7 @@
         <v>71.412800000000004</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
@@ -758,7 +764,7 @@
         <v>7.8228299999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
@@ -769,93 +775,104 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="11">
+        <v>26.21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="11">
-        <v>1156.825</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="6" t="s">
+      <c r="D19" s="8">
+        <v>2149.1999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11">
+        <v>4012.6259706747101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2869.3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="20">
+        <v>2939.3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="8">
-        <v>4012.6259706747101</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="11">
-        <v>2759</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="14">
-        <v>2936.8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="2" t="s">
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
